--- a/biology/Botanique/Square_Louis-Majorelle/Square_Louis-Majorelle.xlsx
+++ b/biology/Botanique/Square_Louis-Majorelle/Square_Louis-Majorelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Louis-Majorelle est un espace vert du 11e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square occupe un espace grossièrement rectangulaire, entre les 24-30, rue de la Forge-Royale à l'ouest, les 27-29, rue Saint-Bernard au nord et les 23-25, rue Saint-Bernard à l'est, dans le 11e arrondissement de Paris. Il est bordé au sud par des habitations.
 Au nord, de l'autre côté de la rue Saint-Bernard se trouvent le square Raoul-Nordling et l'église Sainte-Marguerite.
@@ -546,13 +560,85 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est créé en 1994 par l'AGENCE TER. Il porte le nom de l'ébéniste français Louis Majorelle (1859-1926), membre de l'École de Nancy, le jardin étant créé lors du centenaire de ce courant artistique.
-Généralités
-Le square prend une forme rectangulaire. Il mesure 2 700 m2.
-Espèces végétales
-Le square possède de nombreux hortensias.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Square_Louis-Majorelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Square_Louis-Majorelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square prend une forme rectangulaire. Il mesure 2 700 m2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Square_Louis-Majorelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Square_Louis-Majorelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces végétales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square possède de nombreux hortensias.
 </t>
         </is>
       </c>
